--- a/27mm冷排换扇同噪声数据-前八250W.xlsx
+++ b/27mm冷排换扇同噪声数据-前八250W.xlsx
@@ -1,41 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEB6D0-E690-1642-897A-5528DD9590AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>LP12E</t>
+  </si>
+  <si>
+    <t>9RA12038</t>
+  </si>
+  <si>
+    <t>9RA12025</t>
+  </si>
+  <si>
+    <t>JC12025</t>
+  </si>
+  <si>
+    <t>MACH120</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,90 +79,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,259 +406,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>LP12E</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>9RA12038</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>9RA12025</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>JC12025</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MACH120</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>93.6</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>93.1</v>
+      </c>
+      <c r="E2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F2">
+        <v>93.1</v>
+      </c>
+      <c r="G2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H2">
+        <v>95</v>
+      </c>
+      <c r="I2">
+        <v>39.1</v>
+      </c>
+      <c r="J2">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>92.5</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>91.6</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>91.9</v>
+      </c>
+      <c r="G3">
+        <v>41.1</v>
+      </c>
+      <c r="H3">
+        <v>92.9</v>
+      </c>
+      <c r="I3">
+        <v>41.2</v>
+      </c>
+      <c r="J3">
+        <v>93.5</v>
+      </c>
+      <c r="K3">
+        <v>41</v>
+      </c>
+      <c r="L3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>91.5</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>90.5</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>90.7</v>
+      </c>
+      <c r="G4">
+        <v>43.5</v>
+      </c>
+      <c r="H4">
+        <v>92.2</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>92.5</v>
+      </c>
+      <c r="K4">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>47.2</v>
+      </c>
+      <c r="D5">
+        <v>89.6</v>
+      </c>
+      <c r="E5">
+        <v>47.3</v>
+      </c>
+      <c r="F5">
+        <v>89.8</v>
+      </c>
+      <c r="G5">
+        <v>47.3</v>
+      </c>
+      <c r="H5">
+        <v>90.2</v>
+      </c>
+      <c r="I5">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>90.9</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>47.5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B6">
         <v>89.8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>88.8</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>89.2</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>89.9</v>
+      </c>
+      <c r="I6">
+        <v>50.2</v>
+      </c>
+      <c r="J6">
+        <v>89.8</v>
+      </c>
+      <c r="K6">
+        <v>49.3</v>
+      </c>
+      <c r="L6">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7">
         <v>57</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D7">
         <v>88</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E7">
         <v>52</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F7">
         <v>88.2</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G7">
         <v>51.3</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H7">
         <v>88.7</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>90.40000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>89.90000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -698,6 +660,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/27mm冷排换扇同噪声数据-前八250W.xlsx
+++ b/27mm冷排换扇同噪声数据-前八250W.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/水冷换扇250W同噪声性能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEB6D0-E690-1642-897A-5528DD9590AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1843856E-068B-824D-9BB6-84BD2BEE14CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LP12E</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>T30</t>
+  </si>
+  <si>
+    <t>P12E</t>
+  </si>
+  <si>
+    <t>GT3000</t>
   </si>
 </sst>
 </file>
@@ -407,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R12"/>
+      <selection activeCell="I6" sqref="I6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +446,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>39</v>
       </c>
@@ -478,8 +492,20 @@
       <c r="L2">
         <v>94.2</v>
       </c>
+      <c r="M2">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>94.7</v>
+      </c>
+      <c r="O2">
+        <v>39.1</v>
+      </c>
+      <c r="P2">
+        <v>94.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>41</v>
       </c>
@@ -516,8 +542,20 @@
       <c r="L3">
         <v>93</v>
       </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>93.1</v>
+      </c>
+      <c r="O3">
+        <v>41.1</v>
+      </c>
+      <c r="P3">
+        <v>93.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>43</v>
       </c>
@@ -554,8 +592,20 @@
       <c r="L4">
         <v>92.2</v>
       </c>
+      <c r="M4">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>92.1</v>
+      </c>
+      <c r="O4">
+        <v>43.1</v>
+      </c>
+      <c r="P4">
+        <v>92.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>47</v>
       </c>
@@ -592,8 +642,20 @@
       <c r="L5">
         <v>90.4</v>
       </c>
+      <c r="M5">
+        <v>47</v>
+      </c>
+      <c r="N5">
+        <v>90.4</v>
+      </c>
+      <c r="O5">
+        <v>47</v>
+      </c>
+      <c r="P5">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>47.5</v>
       </c>
@@ -631,7 +693,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16">
       <c r="C7">
         <v>57</v>
       </c>
@@ -652,13 +714,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/27mm冷排换扇同噪声数据-前八250W.xlsx
+++ b/27mm冷排换扇同噪声数据-前八250W.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/水冷换扇250W同噪声性能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1843856E-068B-824D-9BB6-84BD2BEE14CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9637BF-5CB0-214A-BD76-F94656088AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>LP12E</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>GT3000</t>
+  </si>
+  <si>
+    <t>风尊T30CO</t>
+  </si>
+  <si>
+    <t>GT-Low3000</t>
+  </si>
+  <si>
+    <t>A12x25G2+莫比乌斯</t>
   </si>
 </sst>
 </file>
@@ -413,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +463,20 @@
         <v>7</v>
       </c>
       <c r="P1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>39</v>
       </c>
@@ -504,8 +525,26 @@
       <c r="P2">
         <v>94.6</v>
       </c>
+      <c r="Q2">
+        <v>38.9</v>
+      </c>
+      <c r="R2">
+        <v>94.9</v>
+      </c>
+      <c r="S2">
+        <v>39</v>
+      </c>
+      <c r="T2">
+        <v>93.8</v>
+      </c>
+      <c r="U2">
+        <v>39</v>
+      </c>
+      <c r="V2">
+        <v>93.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>41</v>
       </c>
@@ -554,8 +593,26 @@
       <c r="P3">
         <v>93.7</v>
       </c>
+      <c r="Q3">
+        <v>41.2</v>
+      </c>
+      <c r="R3">
+        <v>93.1</v>
+      </c>
+      <c r="S3">
+        <v>41.1</v>
+      </c>
+      <c r="T3">
+        <v>92</v>
+      </c>
+      <c r="U3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="V3">
+        <v>92.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>43</v>
       </c>
@@ -604,8 +661,20 @@
       <c r="P4">
         <v>92.4</v>
       </c>
+      <c r="Q4">
+        <v>44.3</v>
+      </c>
+      <c r="R4">
+        <v>91.1</v>
+      </c>
+      <c r="S4">
+        <v>43.3</v>
+      </c>
+      <c r="T4">
+        <v>91.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>47</v>
       </c>
@@ -654,8 +723,14 @@
       <c r="P5">
         <v>91</v>
       </c>
+      <c r="S5">
+        <v>47.3</v>
+      </c>
+      <c r="T5">
+        <v>89.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>47.5</v>
       </c>
@@ -693,7 +768,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="C7">
         <v>57</v>
       </c>
@@ -714,7 +789,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="I1:J1"/>
@@ -722,7 +801,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/27mm冷排换扇同噪声数据-前八250W.xlsx
+++ b/27mm冷排换扇同噪声数据-前八250W.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/水冷换扇250W同噪声性能/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9637BF-5CB0-214A-BD76-F94656088AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D839FE-B794-3B45-9D2D-A1E16CF4FB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,8 @@
     <t>GT-Low3000</t>
   </si>
   <si>
-    <t>A12x25G2+莫比乌斯</t>
+    <t>A12x25G2+莫比乌斯夹汉堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,7 +426,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/27mm冷排换扇同噪声数据-前八250W.xlsx
+++ b/27mm冷排换扇同噪声数据-前八250W.xlsx
@@ -5,54 +5,69 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/水冷换扇250W同噪声性能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D839FE-B794-3B45-9D2D-A1E16CF4FB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701C0E04-1370-8E4A-91FE-8F6313ACA34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>9RA12038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LP12E</t>
-  </si>
-  <si>
-    <t>9RA12038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JC12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MACH120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GT3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风尊T30CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GT-Low3000</t>
-  </si>
-  <si>
-    <t>A12x25G2+莫比乌斯夹汉堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12x25G2+莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,15 +114,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,62 +434,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>39</v>
       </c>
@@ -485,67 +508,97 @@
         <v>93.6</v>
       </c>
       <c r="C2">
+        <v>1948</v>
+      </c>
+      <c r="D2">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>93.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
         <v>39.200000000000003</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>93.1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>2174</v>
+      </c>
+      <c r="J2">
         <v>38.799999999999997</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>95</v>
       </c>
-      <c r="I2">
+      <c r="L2">
+        <v>1907</v>
+      </c>
+      <c r="M2">
         <v>39.1</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>95</v>
       </c>
-      <c r="K2">
+      <c r="O2">
+        <v>1904</v>
+      </c>
+      <c r="P2">
         <v>39</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
         <v>94.2</v>
       </c>
-      <c r="M2">
-        <v>39</v>
-      </c>
-      <c r="N2">
-        <v>94.7</v>
-      </c>
-      <c r="O2">
-        <v>39.1</v>
-      </c>
-      <c r="P2">
-        <v>94.6</v>
-      </c>
-      <c r="Q2">
-        <v>38.9</v>
-      </c>
       <c r="R2">
-        <v>94.9</v>
+        <v>1910</v>
       </c>
       <c r="S2">
         <v>39</v>
       </c>
       <c r="T2">
+        <v>94.7</v>
+      </c>
+      <c r="U2">
+        <v>1938</v>
+      </c>
+      <c r="V2">
+        <v>39.1</v>
+      </c>
+      <c r="W2">
+        <v>94.6</v>
+      </c>
+      <c r="X2">
+        <v>2022</v>
+      </c>
+      <c r="Y2">
+        <v>38.9</v>
+      </c>
+      <c r="Z2">
+        <v>94.9</v>
+      </c>
+      <c r="AA2">
+        <v>1895</v>
+      </c>
+      <c r="AB2">
+        <v>39</v>
+      </c>
+      <c r="AC2">
         <v>93.8</v>
       </c>
-      <c r="U2">
+      <c r="AD2">
+        <v>2027</v>
+      </c>
+      <c r="AE2">
         <v>39</v>
       </c>
-      <c r="V2">
+      <c r="AF2">
         <v>93.2</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>41</v>
       </c>
@@ -553,67 +606,97 @@
         <v>92.5</v>
       </c>
       <c r="C3">
+        <v>2197</v>
+      </c>
+      <c r="D3">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>91.6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>2268</v>
+      </c>
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>91.9</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>2419</v>
+      </c>
+      <c r="J3">
         <v>41.1</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>92.9</v>
       </c>
-      <c r="I3">
+      <c r="L3">
+        <v>2259</v>
+      </c>
+      <c r="M3">
         <v>41.2</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>93.5</v>
       </c>
-      <c r="K3">
+      <c r="O3">
+        <v>2120</v>
+      </c>
+      <c r="P3">
         <v>41</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>93</v>
       </c>
-      <c r="M3">
+      <c r="R3">
+        <v>2154</v>
+      </c>
+      <c r="S3">
         <v>41</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>93.1</v>
       </c>
-      <c r="O3">
+      <c r="U3">
+        <v>2169</v>
+      </c>
+      <c r="V3">
         <v>41.1</v>
       </c>
-      <c r="P3">
+      <c r="W3">
         <v>93.7</v>
       </c>
-      <c r="Q3">
+      <c r="X3">
+        <v>2243</v>
+      </c>
+      <c r="Y3">
         <v>41.2</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>93.1</v>
       </c>
-      <c r="S3">
+      <c r="AA3">
+        <v>2187</v>
+      </c>
+      <c r="AB3">
         <v>41.1</v>
       </c>
-      <c r="T3">
+      <c r="AC3">
         <v>92</v>
       </c>
-      <c r="U3">
+      <c r="AD3">
+        <v>2277</v>
+      </c>
+      <c r="AE3">
         <v>40.200000000000003</v>
       </c>
-      <c r="V3">
+      <c r="AF3">
         <v>92.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>43</v>
       </c>
@@ -621,61 +704,91 @@
         <v>91.5</v>
       </c>
       <c r="C4">
+        <v>2400</v>
+      </c>
+      <c r="D4">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>90.5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>2453</v>
+      </c>
+      <c r="G4">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>90.7</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>2702</v>
+      </c>
+      <c r="J4">
         <v>43.5</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>92.2</v>
       </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <v>92.5</v>
-      </c>
-      <c r="K4">
-        <v>43</v>
-      </c>
       <c r="L4">
-        <v>92.2</v>
+        <v>2547</v>
       </c>
       <c r="M4">
         <v>43</v>
       </c>
       <c r="N4">
+        <v>92.5</v>
+      </c>
+      <c r="O4">
+        <v>2285</v>
+      </c>
+      <c r="P4">
+        <v>43</v>
+      </c>
+      <c r="Q4">
+        <v>92.2</v>
+      </c>
+      <c r="R4">
+        <v>2390</v>
+      </c>
+      <c r="S4">
+        <v>43</v>
+      </c>
+      <c r="T4">
         <v>92.1</v>
       </c>
-      <c r="O4">
+      <c r="U4">
+        <v>2366</v>
+      </c>
+      <c r="V4">
         <v>43.1</v>
       </c>
-      <c r="P4">
+      <c r="W4">
         <v>92.4</v>
       </c>
-      <c r="Q4">
+      <c r="X4">
+        <v>2505</v>
+      </c>
+      <c r="Y4">
         <v>44.3</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>91.1</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
+        <v>2542</v>
+      </c>
+      <c r="AB4">
         <v>43.3</v>
       </c>
-      <c r="T4">
+      <c r="AC4">
         <v>91.6</v>
       </c>
+      <c r="AD4">
+        <v>2515</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>47</v>
       </c>
@@ -683,55 +796,82 @@
         <v>90</v>
       </c>
       <c r="C5">
+        <v>2857</v>
+      </c>
+      <c r="D5">
         <v>47.2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>89.6</v>
       </c>
-      <c r="E5">
-        <v>47.3</v>
-      </c>
       <c r="F5">
-        <v>89.8</v>
+        <v>2905</v>
       </c>
       <c r="G5">
         <v>47.3</v>
       </c>
       <c r="H5">
+        <v>89.8</v>
+      </c>
+      <c r="I5">
+        <v>3225</v>
+      </c>
+      <c r="J5">
+        <v>47.3</v>
+      </c>
+      <c r="K5">
         <v>90.2</v>
       </c>
-      <c r="I5">
-        <v>47</v>
-      </c>
-      <c r="J5">
-        <v>90.9</v>
-      </c>
-      <c r="K5">
-        <v>47</v>
-      </c>
       <c r="L5">
-        <v>90.4</v>
+        <v>3045</v>
       </c>
       <c r="M5">
         <v>47</v>
       </c>
       <c r="N5">
+        <v>90.9</v>
+      </c>
+      <c r="O5">
+        <v>2649</v>
+      </c>
+      <c r="P5">
+        <v>47</v>
+      </c>
+      <c r="Q5">
         <v>90.4</v>
       </c>
-      <c r="O5">
+      <c r="R5">
+        <v>2810</v>
+      </c>
+      <c r="S5">
         <v>47</v>
       </c>
-      <c r="P5">
+      <c r="T5">
+        <v>90.4</v>
+      </c>
+      <c r="U5">
+        <v>2777</v>
+      </c>
+      <c r="V5">
+        <v>47</v>
+      </c>
+      <c r="W5">
         <v>91</v>
       </c>
-      <c r="S5">
+      <c r="X5">
+        <v>2984</v>
+      </c>
+      <c r="AB5">
         <v>47.3</v>
       </c>
-      <c r="T5">
+      <c r="AC5">
         <v>89.9</v>
       </c>
+      <c r="AD5">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>47.5</v>
       </c>
@@ -739,69 +879,96 @@
         <v>89.8</v>
       </c>
       <c r="C6">
+        <v>2905</v>
+      </c>
+      <c r="D6">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>88.8</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
       <c r="F6">
-        <v>89.2</v>
+        <v>3191</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6">
+        <v>89.2</v>
+      </c>
+      <c r="I6">
+        <v>3560</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
         <v>89.9</v>
       </c>
-      <c r="I6">
+      <c r="L6">
+        <v>3508</v>
+      </c>
+      <c r="M6">
         <v>50.2</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>89.8</v>
       </c>
-      <c r="K6">
+      <c r="O6">
+        <v>3053</v>
+      </c>
+      <c r="P6">
         <v>49.3</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>89.7</v>
       </c>
+      <c r="R6">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="C7">
+    <row r="7" spans="1:33">
+      <c r="D7">
         <v>57</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>88</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>4324</v>
+      </c>
+      <c r="G7">
         <v>52</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>88.2</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>3986</v>
+      </c>
+      <c r="J7">
         <v>51.3</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>88.7</v>
+      </c>
+      <c r="L7">
+        <v>3726</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
